--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.386</v>
+        <v>16.355</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.454</v>
+        <v>16.431</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.47</v>
+        <v>-12.808</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.434</v>
+        <v>-22.231</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.966</v>
+        <v>-21.754</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.53</v>
+        <v>16.962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.771</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.314</v>
+        <v>-12.773</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.602</v>
+        <v>16.902</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.398</v>
+        <v>-13.636</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,19 +734,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.586</v>
+        <v>-21.572</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.096</v>
+        <v>-10.643</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.242</v>
+        <v>17.793</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.558</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.828</v>
+        <v>-11.93</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.406</v>
+        <v>16.547</v>
       </c>
     </row>
     <row r="22">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.998</v>
+        <v>-21.832</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.212</v>
+        <v>16.477</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.186</v>
+        <v>-11.987</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.6</v>
+        <v>-13.347</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.208</v>
+        <v>-13.744</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.896</v>
+        <v>16.224</v>
       </c>
     </row>
     <row r="32">
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.794</v>
+        <v>-11.986</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.12</v>
+        <v>-20.044</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.48</v>
+        <v>16.613</v>
       </c>
     </row>
     <row r="39">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.172</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.366</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="43">
@@ -1182,13 +1182,13 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.612</v>
+        <v>-12.827</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.67</v>
+        <v>16.732</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.412</v>
+        <v>16.243</v>
       </c>
     </row>
     <row r="48">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.836</v>
+        <v>-13.371</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.208</v>
+        <v>-12.661</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.168</v>
+        <v>-21.868</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.032</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="57">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.352</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.31</v>
+        <v>17.025</v>
       </c>
     </row>
     <row r="66">
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.612</v>
+        <v>-21.736</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.004</v>
+        <v>-11.001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.402</v>
+        <v>16.511</v>
       </c>
     </row>
     <row r="74">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.364</v>
+        <v>-12.938</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.972</v>
+        <v>-20.586</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.722</v>
+        <v>-20.284</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.588</v>
+        <v>-21.57</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.884</v>
+        <v>-20.098</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.038</v>
+        <v>-21.933</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.037</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.77</v>
+        <v>-22.169</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.976</v>
+        <v>-13.221</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.464</v>
+        <v>-13.091</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>15.998</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="91">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.714</v>
+        <v>-11.436</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.766</v>
+        <v>17.854</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.396</v>
+        <v>17.828</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.512</v>
+        <v>17.303</v>
       </c>
     </row>
     <row r="96">
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.74</v>
+        <v>-12.81</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.17</v>
+        <v>-12.888</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2145,30 +2145,30 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.284</v>
+        <v>-21.254</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.934</v>
+        <v>-12.536</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.842</v>
+        <v>16.717</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.01</v>
+        <v>-19.841</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.832</v>
+        <v>-12.649</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
